--- a/medicine/Psychotrope/Café_du_Commerce_(Besançon)/Café_du_Commerce_(Besançon).xlsx
+++ b/medicine/Psychotrope/Café_du_Commerce_(Besançon)/Café_du_Commerce_(Besançon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_du_Commerce_(Besan%C3%A7on)</t>
+          <t>Café_du_Commerce_(Besançon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le Café du Commerce (aussi nommé Brasserie du Commerce) est un édifice situé dans la ville de Besançon, dans le Doubs en région Bourgogne-Franche-Comté.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_du_Commerce_(Besan%C3%A7on)</t>
+          <t>Café_du_Commerce_(Besançon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siècle de la principale campagne de construction est la seconde moitié du XIXe siècle[1].
-Le décor subsistant de la salle est inscrit au titre des monuments historiques par arrêté du 29 septembre 1981[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siècle de la principale campagne de construction est la seconde moitié du XIXe siècle.
+Le décor subsistant de la salle est inscrit au titre des monuments historiques par arrêté du 29 septembre 1981.
 Vendue en 2023, le dernier directeur de la Brasserie du Commerce était Joshua Ferrer-Bartomeu.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_du_Commerce_(Besan%C3%A7on)</t>
+          <t>Café_du_Commerce_(Besançon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
